--- a/ANALYSIS/DATA/parrot_vpl_overview.xlsx
+++ b/ANALYSIS/DATA/parrot_vpl_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ac2c703c861d3d9/Documents/Dokumente/LPF MAX PLANCK/Manuscripts/YT vocal imitaion/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/ownCloud - ssmeele@ab.mpg.de@owncloud.gwdg.de/Simeon/MPI AB/Side projects/Parrort mimicry/parrot_mimicry/ANALYSIS/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE5ADB18-8F22-4B2F-957B-1A0880B9FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59F022-05F4-9142-A222-71AC4963E2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{68444369-8BC2-4693-8285-1B18FBBEC4BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32340" windowHeight="16900" xr2:uid="{68444369-8BC2-4693-8285-1B18FBBEC4BE}"/>
   </bookViews>
   <sheets>
     <sheet name="all_extended" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -405,9 +401,6 @@
     <t>calyptorhynchus banksii</t>
   </si>
   <si>
-    <t>calyptorhynchus funereus</t>
-  </si>
-  <si>
     <t>calyptorhynchus lathami</t>
   </si>
   <si>
@@ -783,9 +776,6 @@
     <t>neopsephotus bourkii</t>
   </si>
   <si>
-    <t>neopsittacus musschenbroekiiv</t>
-  </si>
-  <si>
     <t>neopsittacus pullicauda</t>
   </si>
   <si>
@@ -1672,13 +1662,19 @@
   </si>
   <si>
     <t>the name of the nominate species before separation</t>
+  </si>
+  <si>
+    <t>zanda funerea</t>
+  </si>
+  <si>
+    <t>neopsittacus musschenbroekii</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1721,6 +1717,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF172B4D"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1767,7 +1769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1786,11 +1788,20 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFE8F2A1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1810,14 +1821,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFCC"/>
-          <bgColor rgb="FFE8F2A1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFCC"/>
@@ -1869,7 +1872,7 @@
   <tableColumns count="11">
     <tableColumn id="2" xr3:uid="{D427E36A-9639-4260-B116-C7310B81E424}" name="Scientific name"/>
     <tableColumn id="1" xr3:uid="{0D442E2D-166E-45C1-93C8-00A69473ED92}" name="former subspec of" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{AABF2BCE-2098-4304-85B8-B4143FC89F89}" name="Genus" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{AABF2BCE-2098-4304-85B8-B4143FC89F89}" name="Genus" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{E55567FF-EA2A-426A-ADB2-A8730E7B946F}" name="Family"/>
     <tableColumn id="6" xr3:uid="{D8A6D568-F259-4FEE-B27A-3B748F052F7F}" name="Vocal learning"/>
     <tableColumn id="7" xr3:uid="{3EB6564B-DEEC-4B2F-98A4-37321D5035AA}" name="Template"/>
@@ -1877,7 +1880,7 @@
     <tableColumn id="9" xr3:uid="{72EF3CBE-2892-4069-BC41-953FCCED71A2}" name="Videos analyzed"/>
     <tableColumn id="10" xr3:uid="{015F1BE2-9D4E-49E1-9152-F7BAC5BCA3C0}" name="Videos with vocal learning"/>
     <tableColumn id="11" xr3:uid="{F5DE348F-C1F4-4E65-8BF2-19486FEE4212}" name="CITEStrade"/>
-    <tableColumn id="12" xr3:uid="{27D8C159-2F3B-4BE1-AD0C-3EF90059EB90}" name="WPTpet" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{27D8C159-2F3B-4BE1-AD0C-3EF90059EB90}" name="WPTpet" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2182,30 +2185,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699BEDED-6460-4391-B8C3-3D08F59D3D1C}">
   <dimension ref="A1:N399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="B371" sqref="A371:XFD377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="17"/>
-    <col min="2" max="2" width="24.453125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="18.6328125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="17"/>
+    <col min="2" max="2" width="24.5" style="8" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" customWidth="1"/>
-    <col min="14" max="14" width="20.7265625" customWidth="1"/>
-    <col min="15" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2214,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -2247,7 +2250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -2285,7 +2288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -2323,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -2361,7 +2364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -2399,7 +2402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -2437,7 +2440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -2478,7 +2481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -2516,7 +2519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -2554,7 +2557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -2592,7 +2595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>30</v>
@@ -2630,7 +2633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -2668,7 +2671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -2706,7 +2709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -2747,7 +2750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -2785,7 +2788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>30</v>
@@ -2823,7 +2826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -2861,7 +2864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -2899,7 +2902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>30</v>
@@ -2937,7 +2940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
@@ -2978,7 +2981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -3019,7 +3022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -3057,7 +3060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -3095,7 +3098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>30</v>
@@ -3133,7 +3136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>30</v>
@@ -3171,7 +3174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>30</v>
@@ -3209,7 +3212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>30</v>
@@ -3247,7 +3250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -3285,7 +3288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
@@ -3323,7 +3326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
@@ -3361,7 +3364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -3399,7 +3402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -3437,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>30</v>
@@ -3475,7 +3478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>30</v>
@@ -3513,7 +3516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E35" t="s">
         <v>30</v>
@@ -3554,7 +3557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>30</v>
@@ -3592,7 +3595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -3603,7 +3606,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>30</v>
@@ -3630,7 +3633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
@@ -3668,7 +3671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -3709,7 +3712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>30</v>
@@ -3747,7 +3750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
@@ -3785,7 +3788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>30</v>
@@ -3823,7 +3826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
@@ -3861,7 +3864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>30</v>
@@ -3899,7 +3902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>30</v>
@@ -3937,7 +3940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -3978,7 +3981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>30</v>
@@ -4019,7 +4022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>30</v>
@@ -4057,7 +4060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
@@ -4098,7 +4101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>30</v>
@@ -4136,7 +4139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -4177,7 +4180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -4215,7 +4218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E53" t="s">
         <v>30</v>
@@ -4256,7 +4259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E54" t="s">
         <v>30</v>
@@ -4294,7 +4297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -4305,7 +4308,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E55" t="s">
         <v>30</v>
@@ -4332,7 +4335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E56" t="s">
         <v>30</v>
@@ -4370,7 +4373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
@@ -4408,7 +4411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
@@ -4449,7 +4452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
@@ -4487,7 +4490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
@@ -4528,7 +4531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -4539,7 +4542,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>30</v>
@@ -4569,7 +4572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E62" t="s">
         <v>30</v>
@@ -4610,7 +4613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>30</v>
@@ -4648,7 +4651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
@@ -4689,7 +4692,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
@@ -4727,7 +4730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E66" t="s">
         <v>30</v>
@@ -4765,7 +4768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -4806,7 +4809,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -4844,7 +4847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>30</v>
@@ -4882,7 +4885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
@@ -4923,7 +4926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>30</v>
@@ -4961,7 +4964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -4972,7 +4975,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
@@ -4999,7 +5002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
@@ -5037,7 +5040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -5048,7 +5051,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
@@ -5075,7 +5078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
@@ -5113,7 +5116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>13</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
@@ -5151,7 +5154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>30</v>
@@ -5189,7 +5192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
@@ -5227,7 +5230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -5265,7 +5268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E80" t="s">
         <v>108</v>
@@ -5303,7 +5306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E81" t="s">
         <v>108</v>
@@ -5341,7 +5344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E82" t="s">
         <v>108</v>
@@ -5379,7 +5382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E83" t="s">
         <v>108</v>
@@ -5417,7 +5420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>108</v>
@@ -5455,7 +5458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E85" t="s">
         <v>108</v>
@@ -5496,7 +5499,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E86" t="s">
         <v>108</v>
@@ -5534,7 +5537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>108</v>
@@ -5572,7 +5575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E88" t="s">
         <v>108</v>
@@ -5610,7 +5613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -5621,7 +5624,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E89" t="s">
         <v>108</v>
@@ -5648,7 +5651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E90" t="s">
         <v>108</v>
@@ -5686,7 +5689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E91" t="s">
         <v>108</v>
@@ -5724,7 +5727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E92" t="s">
         <v>108</v>
@@ -5762,7 +5765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E93" t="s">
         <v>108</v>
@@ -5803,18 +5806,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>122</v>
+      <c r="B94" s="18" t="s">
+        <v>543</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E94" t="s">
         <v>108</v>
@@ -5841,18 +5844,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>108</v>
@@ -5879,21 +5882,21 @@
         <v>18</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>14</v>
@@ -5920,18 +5923,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="15">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -5958,18 +5961,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>14</v>
@@ -5996,18 +5999,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="15">
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -6034,18 +6037,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>14</v>
@@ -6072,18 +6075,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>14</v>
@@ -6110,18 +6113,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>14</v>
@@ -6148,18 +6151,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>14</v>
@@ -6186,18 +6189,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>14</v>
@@ -6224,18 +6227,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>14</v>
@@ -6262,18 +6265,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>14</v>
@@ -6300,18 +6303,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>14</v>
@@ -6338,18 +6341,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14">
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>14</v>
@@ -6376,18 +6379,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>14</v>
@@ -6414,18 +6417,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>14</v>
@@ -6452,18 +6455,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>14</v>
@@ -6490,18 +6493,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>14</v>
@@ -6528,18 +6531,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>14</v>
@@ -6566,18 +6569,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>14</v>
@@ -6604,18 +6607,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>14</v>
@@ -6642,18 +6645,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="15">
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6680,18 +6683,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>14</v>
@@ -6718,18 +6721,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="15">
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
@@ -6756,18 +6759,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="15">
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E119" t="s">
         <v>30</v>
@@ -6794,18 +6797,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14">
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>30</v>
@@ -6832,18 +6835,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14">
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>14</v>
@@ -6870,21 +6873,21 @@
         <v>20</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14">
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>14</v>
@@ -6911,18 +6914,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>14</v>
@@ -6949,18 +6952,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="15">
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
@@ -6987,18 +6990,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="15">
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
@@ -7025,18 +7028,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="D126" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>14</v>
@@ -7063,18 +7066,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14">
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D127" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>14</v>
@@ -7101,18 +7104,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>14</v>
@@ -7139,18 +7142,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>14</v>
@@ -7177,18 +7180,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>14</v>
@@ -7215,18 +7218,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>14</v>
@@ -7253,18 +7256,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="15">
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E132" t="s">
         <v>30</v>
@@ -7291,18 +7294,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="15">
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="D133" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E133" t="s">
         <v>30</v>
@@ -7329,18 +7332,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="15">
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E134" t="s">
         <v>30</v>
@@ -7367,18 +7370,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="15">
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -7405,18 +7408,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>30</v>
@@ -7443,18 +7446,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="15">
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E137" t="s">
         <v>30</v>
@@ -7481,18 +7484,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="15">
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E138" t="s">
         <v>108</v>
@@ -7519,18 +7522,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="15">
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -7557,18 +7560,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>14</v>
@@ -7595,18 +7598,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14">
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>14</v>
@@ -7633,18 +7636,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="15">
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -7671,18 +7674,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>14</v>
@@ -7709,18 +7712,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>14</v>
@@ -7747,18 +7750,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14">
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>14</v>
@@ -7785,18 +7788,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14">
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>14</v>
@@ -7823,18 +7826,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14">
         <v>146</v>
       </c>
       <c r="B147" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D147" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>30</v>
@@ -7861,18 +7864,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="15">
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E148" t="s">
         <v>30</v>
@@ -7899,21 +7902,21 @@
         <v>20</v>
       </c>
       <c r="N148" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="15">
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E149" t="s">
         <v>30</v>
@@ -7940,21 +7943,21 @@
         <v>18</v>
       </c>
       <c r="N149" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="15">
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E150" t="s">
         <v>30</v>
@@ -7981,21 +7984,21 @@
         <v>20</v>
       </c>
       <c r="N150" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14">
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>30</v>
@@ -8022,21 +8025,21 @@
         <v>18</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="15">
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E152" t="s">
         <v>30</v>
@@ -8063,18 +8066,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="15">
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E153" t="s">
         <v>30</v>
@@ -8101,18 +8104,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14">
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>30</v>
@@ -8139,18 +8142,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14">
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>30</v>
@@ -8177,18 +8180,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14">
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="D156" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>30</v>
@@ -8215,18 +8218,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="15">
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
@@ -8253,18 +8256,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14">
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>30</v>
@@ -8291,18 +8294,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>30</v>
@@ -8329,18 +8332,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="15">
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E160" t="s">
         <v>30</v>
@@ -8367,18 +8370,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>14</v>
@@ -8405,18 +8408,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>14</v>
@@ -8443,18 +8446,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14">
         <v>162</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>14</v>
@@ -8481,18 +8484,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14">
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>14</v>
@@ -8519,18 +8522,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="15">
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -8560,18 +8563,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>14</v>
@@ -8601,18 +8604,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>14</v>
@@ -8639,18 +8642,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>30</v>
@@ -8677,18 +8680,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="15">
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E169" t="s">
         <v>30</v>
@@ -8715,18 +8718,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14">
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>30</v>
@@ -8753,18 +8756,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="14">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>30</v>
@@ -8791,18 +8794,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>30</v>
@@ -8829,18 +8832,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>30</v>
@@ -8867,18 +8870,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="15">
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
@@ -8905,18 +8908,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="14">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>30</v>
@@ -8943,18 +8946,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>14</v>
@@ -8981,18 +8984,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>14</v>
@@ -9019,18 +9022,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="14">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>14</v>
@@ -9057,18 +9060,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="14">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>14</v>
@@ -9095,18 +9098,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>14</v>
@@ -9133,18 +9136,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="14">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>14</v>
@@ -9171,18 +9174,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="15">
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
@@ -9209,18 +9212,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="15">
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
@@ -9247,18 +9250,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>14</v>
@@ -9285,18 +9288,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>14</v>
@@ -9323,18 +9326,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>14</v>
@@ -9361,18 +9364,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="14">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>14</v>
@@ -9399,18 +9402,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="14">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>14</v>
@@ -9437,18 +9440,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>14</v>
@@ -9475,18 +9478,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="15">
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
@@ -9513,18 +9516,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>14</v>
@@ -9551,18 +9554,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="15">
         <v>191</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
@@ -9589,18 +9592,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14">
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>14</v>
@@ -9627,18 +9630,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="15">
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
@@ -9665,18 +9668,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="15">
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
@@ -9703,18 +9706,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="14">
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>14</v>
@@ -9741,18 +9744,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14">
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>14</v>
@@ -9779,18 +9782,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="14">
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>14</v>
@@ -9817,18 +9820,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14">
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>14</v>
@@ -9855,18 +9858,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="14">
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>14</v>
@@ -9893,18 +9896,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14">
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>14</v>
@@ -9931,18 +9934,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14">
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>30</v>
@@ -9969,18 +9972,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="15">
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E203" t="s">
         <v>30</v>
@@ -10007,18 +10010,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14">
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>30</v>
@@ -10045,18 +10048,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14">
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>30</v>
@@ -10083,18 +10086,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14">
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>14</v>
@@ -10121,18 +10124,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14">
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>14</v>
@@ -10159,18 +10162,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="15">
         <v>207</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
@@ -10197,18 +10200,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>14</v>
@@ -10235,21 +10238,21 @@
         <v>20</v>
       </c>
       <c r="M209" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="15">
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
@@ -10276,18 +10279,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="15">
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
@@ -10314,18 +10317,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="15">
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
@@ -10352,18 +10355,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="14">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>248</v>
+        <v>544</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>14</v>
@@ -10390,18 +10393,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="14">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>14</v>
@@ -10428,21 +10431,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="15">
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E215" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F215" t="s">
         <v>17</v>
@@ -10466,21 +10469,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="15">
         <v>215</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E216" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F216" t="s">
         <v>15</v>
@@ -10504,18 +10507,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="15">
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
@@ -10542,18 +10545,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="15">
         <v>217</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E218" t="s">
         <v>108</v>
@@ -10580,18 +10583,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="14">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>30</v>
@@ -10618,18 +10621,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="14">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>14</v>
@@ -10656,18 +10659,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="14">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>30</v>
@@ -10694,18 +10697,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="14">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>14</v>
@@ -10732,18 +10735,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14">
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>14</v>
@@ -10770,18 +10773,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="14">
         <v>223</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>14</v>
@@ -10808,18 +10811,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="15">
         <v>224</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E225" t="s">
         <v>30</v>
@@ -10846,18 +10849,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="15">
         <v>225</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E226" t="s">
         <v>30</v>
@@ -10884,18 +10887,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="14">
         <v>226</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>30</v>
@@ -10922,18 +10925,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="14">
         <v>227</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>30</v>
@@ -10960,18 +10963,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="14">
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>30</v>
@@ -10998,18 +11001,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="15">
         <v>229</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E230" t="s">
         <v>30</v>
@@ -11036,18 +11039,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="15">
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E231" t="s">
         <v>30</v>
@@ -11074,18 +11077,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="15">
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E232" t="s">
         <v>30</v>
@@ -11112,18 +11115,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="15">
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E233" t="s">
         <v>30</v>
@@ -11150,18 +11153,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="14">
         <v>233</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>30</v>
@@ -11188,18 +11191,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="15">
         <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E235" t="s">
         <v>30</v>
@@ -11229,18 +11232,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="14">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>30</v>
@@ -11267,18 +11270,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="14">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>30</v>
@@ -11305,18 +11308,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="14">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>30</v>
@@ -11343,18 +11346,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="15">
         <v>238</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
@@ -11381,18 +11384,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="14">
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>14</v>
@@ -11419,18 +11422,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="15">
         <v>240</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E241" t="s">
         <v>14</v>
@@ -11457,18 +11460,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="15">
         <v>241</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -11495,18 +11498,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="14">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>14</v>
@@ -11533,18 +11536,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="14">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>14</v>
@@ -11571,18 +11574,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="14">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>30</v>
@@ -11609,18 +11612,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="15">
         <v>245</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E246" t="s">
         <v>30</v>
@@ -11647,18 +11650,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>30</v>
@@ -11685,18 +11688,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="15">
         <v>247</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E248" t="s">
         <v>30</v>
@@ -11723,18 +11726,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="15">
         <v>248</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E249" t="s">
         <v>30</v>
@@ -11761,18 +11764,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="15">
         <v>249</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E250" t="s">
         <v>30</v>
@@ -11799,18 +11802,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="14">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>30</v>
@@ -11837,18 +11840,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="15">
         <v>251</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E252" t="s">
         <v>30</v>
@@ -11875,18 +11878,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="15">
         <v>252</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E253" t="s">
         <v>30</v>
@@ -11913,18 +11916,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="15">
         <v>253</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
@@ -11951,18 +11954,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="15">
         <v>254</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E255" t="s">
         <v>14</v>
@@ -11989,18 +11992,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="15">
         <v>255</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -12027,18 +12030,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="15">
         <v>256</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E257" t="s">
         <v>30</v>
@@ -12065,18 +12068,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="14">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E258" s="5" t="s">
         <v>30</v>
@@ -12103,18 +12106,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="15">
         <v>258</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E259" t="s">
         <v>30</v>
@@ -12141,18 +12144,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="15">
         <v>259</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E260" t="s">
         <v>14</v>
@@ -12179,18 +12182,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="14">
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E261" s="5" t="s">
         <v>14</v>
@@ -12217,18 +12220,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="14">
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>14</v>
@@ -12255,18 +12258,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="14">
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>14</v>
@@ -12293,18 +12296,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="14">
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>14</v>
@@ -12331,18 +12334,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="14">
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>14</v>
@@ -12369,18 +12372,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="14">
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>14</v>
@@ -12407,18 +12410,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="14">
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>14</v>
@@ -12445,18 +12448,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="15">
         <v>267</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
@@ -12483,18 +12486,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="14">
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E269" s="5" t="s">
         <v>14</v>
@@ -12521,18 +12524,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="15">
         <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E270" t="s">
         <v>108</v>
@@ -12559,18 +12562,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="14">
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E271" s="5" t="s">
         <v>14</v>
@@ -12597,18 +12600,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="14">
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E272" s="5" t="s">
         <v>14</v>
@@ -12635,18 +12638,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="14">
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>14</v>
@@ -12673,18 +12676,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="14">
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>14</v>
@@ -12714,18 +12717,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="14">
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>14</v>
@@ -12752,18 +12755,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="14">
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>14</v>
@@ -12790,18 +12793,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="15">
         <v>276</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E277" t="s">
         <v>14</v>
@@ -12828,18 +12831,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="15">
         <v>277</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E278" t="s">
         <v>14</v>
@@ -12866,18 +12869,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="15">
         <v>278</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E279" t="s">
         <v>14</v>
@@ -12904,18 +12907,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="14">
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>30</v>
@@ -12942,18 +12945,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="14">
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>30</v>
@@ -12980,18 +12983,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="15">
         <v>281</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E282" t="s">
         <v>30</v>
@@ -13021,18 +13024,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="15">
         <v>282</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E283" t="s">
         <v>30</v>
@@ -13059,18 +13062,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="15">
         <v>283</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E284" t="s">
         <v>30</v>
@@ -13097,18 +13100,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="14">
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>30</v>
@@ -13135,18 +13138,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="15">
         <v>285</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E286" t="s">
         <v>30</v>
@@ -13176,18 +13179,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="287" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="14">
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E287" s="5" t="s">
         <v>30</v>
@@ -13214,18 +13217,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="14">
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>30</v>
@@ -13252,18 +13255,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="15">
         <v>288</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E289" t="s">
         <v>30</v>
@@ -13290,18 +13293,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="15">
         <v>289</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E290" t="s">
         <v>30</v>
@@ -13331,18 +13334,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>30</v>
@@ -13369,18 +13372,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="15">
         <v>291</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E292" t="s">
         <v>30</v>
@@ -13407,18 +13410,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="14">
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>14</v>
@@ -13445,18 +13448,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="14">
         <v>293</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>14</v>
@@ -13483,18 +13486,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="14">
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>14</v>
@@ -13521,18 +13524,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="14">
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>14</v>
@@ -13559,18 +13562,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="14">
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>14</v>
@@ -13597,18 +13600,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="15">
         <v>297</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E298" t="s">
         <v>14</v>
@@ -13635,18 +13638,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="14">
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>14</v>
@@ -13673,18 +13676,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="14">
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>14</v>
@@ -13711,18 +13714,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="15">
         <v>300</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E301" t="s">
         <v>14</v>
@@ -13749,18 +13752,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="15">
         <v>301</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E302" t="s">
         <v>14</v>
@@ -13787,18 +13790,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="15">
         <v>302</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E303" t="s">
         <v>14</v>
@@ -13825,18 +13828,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="14">
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>14</v>
@@ -13863,18 +13866,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="15">
         <v>304</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C305" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E305" t="s">
         <v>14</v>
@@ -13901,21 +13904,21 @@
         <v>20</v>
       </c>
       <c r="M305" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="15">
         <v>305</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E306" s="5" t="s">
         <v>14</v>
@@ -13942,18 +13945,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="15">
         <v>306</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
@@ -13980,21 +13983,21 @@
         <v>20</v>
       </c>
       <c r="M307" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="15">
         <v>307</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E308" t="s">
         <v>14</v>
@@ -14021,18 +14024,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="15">
         <v>308</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E309" t="s">
         <v>14</v>
@@ -14059,18 +14062,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="14">
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>14</v>
@@ -14097,18 +14100,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="14">
         <v>310</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>14</v>
@@ -14135,18 +14138,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="14">
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>14</v>
@@ -14173,18 +14176,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="14">
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>14</v>
@@ -14211,18 +14214,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="14">
         <v>313</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>14</v>
@@ -14249,18 +14252,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="14">
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>14</v>
@@ -14287,18 +14290,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="15">
         <v>315</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E316" t="s">
         <v>30</v>
@@ -14325,18 +14328,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="15">
         <v>316</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E317" t="s">
         <v>30</v>
@@ -14363,21 +14366,21 @@
         <v>20</v>
       </c>
       <c r="N317" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="15">
         <v>317</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E318" t="s">
         <v>14</v>
@@ -14404,18 +14407,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="14">
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E319" s="5" t="s">
         <v>14</v>
@@ -14442,18 +14445,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="14">
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>14</v>
@@ -14480,18 +14483,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="14">
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>14</v>
@@ -14518,18 +14521,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="15">
         <v>321</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E322" t="s">
         <v>14</v>
@@ -14556,18 +14559,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="14">
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>14</v>
@@ -14594,18 +14597,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="14">
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>14</v>
@@ -14632,18 +14635,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="325" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="14">
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>30</v>
@@ -14670,18 +14673,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="14">
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>30</v>
@@ -14708,18 +14711,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="14">
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>30</v>
@@ -14746,18 +14749,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="14">
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>30</v>
@@ -14784,18 +14787,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="14">
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E329" s="5" t="s">
         <v>30</v>
@@ -14822,18 +14825,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="14">
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>30</v>
@@ -14860,18 +14863,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="14">
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E331" s="5" t="s">
         <v>30</v>
@@ -14898,18 +14901,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="14">
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>30</v>
@@ -14936,18 +14939,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="14">
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E333" s="5" t="s">
         <v>30</v>
@@ -14974,18 +14977,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="14">
         <v>333</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>30</v>
@@ -15012,18 +15015,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="14">
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E335" s="5" t="s">
         <v>30</v>
@@ -15050,18 +15053,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="14">
         <v>335</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E336" s="5" t="s">
         <v>30</v>
@@ -15088,18 +15091,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="14">
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E337" s="5" t="s">
         <v>30</v>
@@ -15126,18 +15129,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="15">
         <v>337</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E338" t="s">
         <v>30</v>
@@ -15164,18 +15167,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="14">
         <v>338</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E339" s="5" t="s">
         <v>30</v>
@@ -15202,18 +15205,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="14">
         <v>339</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E340" s="5" t="s">
         <v>30</v>
@@ -15240,18 +15243,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="15">
         <v>340</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E341" t="s">
         <v>30</v>
@@ -15278,18 +15281,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="14">
         <v>341</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>30</v>
@@ -15316,18 +15319,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="14">
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E343" s="5" t="s">
         <v>30</v>
@@ -15354,18 +15357,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="14">
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E344" s="5" t="s">
         <v>30</v>
@@ -15392,18 +15395,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="15">
         <v>344</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C345" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E345" t="s">
         <v>30</v>
@@ -15430,18 +15433,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="15">
         <v>345</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E346" t="s">
         <v>30</v>
@@ -15468,18 +15471,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="14">
         <v>346</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E347" s="5" t="s">
         <v>30</v>
@@ -15506,18 +15509,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="14">
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>30</v>
@@ -15544,18 +15547,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="15">
         <v>348</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C349" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E349" t="s">
         <v>30</v>
@@ -15585,18 +15588,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="350" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="14">
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>30</v>
@@ -15623,18 +15626,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="14">
         <v>350</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E351" s="5" t="s">
         <v>30</v>
@@ -15661,18 +15664,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="14">
         <v>351</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E352" s="5" t="s">
         <v>30</v>
@@ -15699,18 +15702,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="15">
         <v>352</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C353" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E353" t="s">
         <v>30</v>
@@ -15737,18 +15740,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="14">
         <v>353</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>30</v>
@@ -15775,18 +15778,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="14">
         <v>354</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E355" s="5" t="s">
         <v>30</v>
@@ -15813,18 +15816,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="15">
         <v>355</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E356" t="s">
         <v>30</v>
@@ -15851,18 +15854,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="15">
         <v>356</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E357" t="s">
         <v>30</v>
@@ -15889,18 +15892,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="15">
         <v>357</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E358" t="s">
         <v>30</v>
@@ -15927,18 +15930,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="15">
         <v>358</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C359" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E359" t="s">
         <v>30</v>
@@ -15965,18 +15968,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="14">
         <v>359</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>30</v>
@@ -16003,18 +16006,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="14">
         <v>360</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E361" s="5" t="s">
         <v>30</v>
@@ -16041,18 +16044,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="14">
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>30</v>
@@ -16079,18 +16082,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="14">
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E363" s="5" t="s">
         <v>30</v>
@@ -16117,18 +16120,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="14">
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>30</v>
@@ -16155,21 +16158,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="15">
         <v>364</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C365" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E365" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F365" t="s">
         <v>17</v>
@@ -16193,18 +16196,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="14">
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>14</v>
@@ -16231,18 +16234,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="15">
         <v>366</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E367" t="s">
         <v>14</v>
@@ -16269,18 +16272,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="15">
         <v>367</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E368" t="s">
         <v>14</v>
@@ -16307,18 +16310,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="14">
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E369" s="5" t="s">
         <v>14</v>
@@ -16345,18 +16348,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="14">
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>30</v>
@@ -16383,18 +16386,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="14">
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E371" s="5" t="s">
         <v>30</v>
@@ -16421,18 +16424,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="14">
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>30</v>
@@ -16459,18 +16462,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="14">
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E373" s="5" t="s">
         <v>30</v>
@@ -16497,18 +16500,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="14">
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E374" s="5" t="s">
         <v>30</v>
@@ -16535,18 +16538,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="14">
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E375" s="5" t="s">
         <v>30</v>
@@ -16573,18 +16576,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="14">
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E376" s="5" t="s">
         <v>30</v>
@@ -16611,18 +16614,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="14">
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E377" s="5" t="s">
         <v>30</v>
@@ -16649,18 +16652,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="14">
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>14</v>
@@ -16687,18 +16690,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="15">
         <v>378</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C379" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E379" t="s">
         <v>14</v>
@@ -16725,21 +16728,21 @@
         <v>20</v>
       </c>
       <c r="M379" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="14">
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>14</v>
@@ -16766,18 +16769,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="14">
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E381" s="5" t="s">
         <v>14</v>
@@ -16804,18 +16807,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A382" s="14">
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>14</v>
@@ -16842,18 +16845,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="15">
         <v>382</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C383" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E383" t="s">
         <v>14</v>
@@ -16880,18 +16883,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="14">
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>14</v>
@@ -16918,18 +16921,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="14">
         <v>384</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E385" s="5" t="s">
         <v>14</v>
@@ -16956,18 +16959,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" s="15">
         <v>385</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E386" t="s">
         <v>14</v>
@@ -16994,18 +16997,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="14">
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E387" s="5" t="s">
         <v>14</v>
@@ -17032,18 +17035,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="14">
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>14</v>
@@ -17070,18 +17073,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="14">
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E389" s="5" t="s">
         <v>14</v>
@@ -17108,18 +17111,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" s="15">
         <v>389</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E390" t="s">
         <v>14</v>
@@ -17146,21 +17149,21 @@
         <v>20</v>
       </c>
       <c r="M390" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="391" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="14">
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>14</v>
@@ -17187,18 +17190,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="14">
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>30</v>
@@ -17225,18 +17228,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="14">
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E393" s="5" t="s">
         <v>14</v>
@@ -17263,18 +17266,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="14">
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E394" s="5" t="s">
         <v>14</v>
@@ -17301,18 +17304,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="14">
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E395" s="5" t="s">
         <v>14</v>
@@ -17339,18 +17342,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="14">
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E396" s="5" t="s">
         <v>14</v>
@@ -17377,18 +17380,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="14">
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E397" s="5" t="s">
         <v>14</v>
@@ -17415,18 +17418,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="398" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="14">
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E398" s="5" t="s">
         <v>108</v>
@@ -17453,18 +17456,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="14">
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E399" s="5" t="s">
         <v>108</v>
@@ -17491,7 +17494,7 @@
         <v>18</v>
       </c>
       <c r="N399" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -17511,118 +17514,118 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>444</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
